--- a/Project Specifications/ProjectManagementPlan.xlsx
+++ b/Project Specifications/ProjectManagementPlan.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F19BDF9-67A1-4BFF-9E1B-33186ACB92DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czn00\Desktop\Dev10\Lessons\Capstone\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39EEA46C-A63E-451F-9590-75BB59DCB3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>Project Plan - The Gold Standard</t>
   </si>
@@ -100,7 +105,22 @@
     <t xml:space="preserve">       Research ML Models for Price Regression</t>
   </si>
   <si>
-    <t xml:space="preserve">       Implement ML Model and export python script</t>
+    <t xml:space="preserve">       Prepare Data for ML Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Implement ML Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Refine Model and Run</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Re-refine Model and Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Export Python Script</t>
   </si>
   <si>
     <t>Dashboard</t>
@@ -182,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,7 +230,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -373,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -381,20 +401,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -404,13 +420,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -419,6 +432,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -744,55 +763,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="20">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -805,10 +824,10 @@
       <c r="E3" s="6">
         <v>44592</v>
       </c>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="20">
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -823,10 +842,10 @@
       <c r="E4" s="6">
         <v>44592</v>
       </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="20">
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -841,82 +860,82 @@
       <c r="E5" s="6">
         <v>44596</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="21">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
         <v>3.1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="2">
         <v>44594</v>
       </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="21">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
         <v>3.2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
         <v>3.1</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="2">
         <v>44594</v>
       </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="21">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
         <v>3.3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8">
         <v>3.2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="2">
         <v>44596</v>
       </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="21">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
         <v>3.4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>3.3</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="2">
         <v>44596</v>
       </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="20">
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -931,443 +950,492 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="21">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="2">
         <v>44597</v>
       </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="21">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
         <v>4.2</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="2">
         <v>44598</v>
       </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="21">
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
         <v>4.3</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8">
+      <c r="D13">
         <v>4.2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="2">
         <v>44599</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="21">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8">
+      <c r="D14">
         <v>4.3</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="2">
         <v>44600</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="21">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
         <v>4.5</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8">
+      <c r="D15">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="2">
         <v>44601</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="21">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8">
+      <c r="D16">
         <v>4.5</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="2">
         <v>44602</v>
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="21">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
         <v>4.7</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="2">
+        <v>44602</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>4.8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>4.7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44602</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>4.8</v>
+      </c>
+      <c r="E19" s="2">
         <v>44603</v>
       </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="20">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44603</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44603</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
         <v>5</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5">
+      <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5">
         <v>4</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E22" s="6">
         <v>44607</v>
       </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="22">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E23" s="2">
         <v>44604</v>
       </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="22">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
         <v>5.2</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E24" s="2">
         <v>44605</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="22">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
         <v>5.3</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
         <v>5.2</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E25" s="2">
         <v>44606</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="22">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
         <v>5.4</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D26">
         <v>5.3</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E26" s="2">
         <v>44607</v>
       </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="20">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
         <v>6</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5">
+      <c r="B27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5">
         <v>5</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E27" s="6">
         <v>44608</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="22">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
         <v>6.1</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E28" s="2">
         <v>44608</v>
       </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="22">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
         <v>6.2</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29">
         <v>6.1</v>
-      </c>
-      <c r="E25" s="13">
-        <v>44608</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="22">
-        <v>6.3</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8">
-        <v>6.2</v>
-      </c>
-      <c r="E26" s="13">
-        <v>44608</v>
-      </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="22">
-        <v>6.4</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8">
-        <v>6.3</v>
-      </c>
-      <c r="E27" s="13">
-        <v>44608</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="20">
-        <v>7</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5">
-        <v>6</v>
-      </c>
-      <c r="E28" s="6">
-        <v>44608</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="22">
-        <v>7.1</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8">
-        <v>6</v>
       </c>
       <c r="E29" s="9">
         <v>44608</v>
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="22">
-        <v>7.2</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8">
-        <v>7.1</v>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
+        <v>6.3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30">
+        <v>6.2</v>
       </c>
       <c r="E30" s="9">
         <v>44608</v>
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="22">
-        <v>7.3</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8">
-        <v>7.2</v>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
+        <v>6.4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31">
+        <v>6.3</v>
       </c>
       <c r="E31" s="9">
         <v>44608</v>
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="22">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>7</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5">
+        <v>6</v>
+      </c>
+      <c r="E32" s="6">
+        <v>44608</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="18">
+        <v>7.1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44608</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="18">
+        <v>7.2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34">
+        <v>7.1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44608</v>
+      </c>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="18">
+        <v>7.3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35">
+        <v>7.2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44608</v>
+      </c>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="18">
         <v>7.4</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8">
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36">
         <v>7.3</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E36" s="2">
         <v>44608</v>
       </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="22">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="18">
         <v>7.5</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8">
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37">
         <v>7.4</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E37" s="2">
         <v>44608</v>
       </c>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="D38" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="6">
         <v>44609</v>
       </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="9">
+      <c r="D39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="2">
         <v>44609</v>
       </c>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="11">
+      <c r="D40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="8">
         <v>44609</v>
       </c>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="B38" s="1" t="s">
-        <v>49</v>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +1443,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" xr:uid="{90C8090A-566B-4E66-984F-3DEBBDD4F8FC}"/>
+    <hyperlink ref="B42" r:id="rId1" xr:uid="{90C8090A-566B-4E66-984F-3DEBBDD4F8FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
